--- a/DataDriven/Data3.xlsx
+++ b/DataDriven/Data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Selenium-Projects\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61679FE-B5C1-43BD-A950-ED505791593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7609A-208E-4D12-9692-DCDACC9730FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="1188" windowWidth="14796" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Office</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Demo Users</t>
+  </si>
+  <si>
+    <t>dhananjayan</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,11 +544,56 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9092226701</v>
+      </c>
+      <c r="H3" s="3">
+        <v>269810</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4F66CB42-B193-4608-B53B-AD15CEFBF6DE}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{8408BCF3-CBAC-4DCD-8B8D-D049DD26C5F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>